--- a/08_Trace_Quality_Checker/Results/results_RQ1/CAEX/Quality-Checker-LLAMA3.xlsx
+++ b/08_Trace_Quality_Checker/Results/results_RQ1/CAEX/Quality-Checker-LLAMA3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File</t>
   </si>
@@ -88,6 +88,12 @@
     <t>4-qgram</t>
   </si>
   <si>
+    <t>2023-02-07 08.04 Test-representations.airdM.xes</t>
+  </si>
+  <si>
+    <t>2023-02-07 09.06 Test-representations.airdM.xes</t>
+  </si>
+  <si>
     <t>2023-02-07 09.17 Test-representations.airdM.xes</t>
   </si>
   <si>
@@ -125,6 +131,21 @@
   </si>
   <si>
     <t>2023-02-10 08.43 Test-representations.airdM.xes</t>
+  </si>
+  <si>
+    <t>2023-02-10 08.50 Test-representations.airdM.xes</t>
+  </si>
+  <si>
+    <t>2023-02-10 08.58 Test-representations.airdM.xes</t>
+  </si>
+  <si>
+    <t>2023-02-10 09.38 Test-representations.airdM.xes</t>
+  </si>
+  <si>
+    <t>2023-02-10 10.09 Test-representations.airdM.xes</t>
+  </si>
+  <si>
+    <t>2023-02-10 10.37 Test-representations.airdM.xes</t>
   </si>
 </sst>
 </file>
@@ -482,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,70 +588,70 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.6633221850613156</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7875647668393783</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.9821917808219178</v>
+        <v>0.9723837209302325</v>
       </c>
       <c r="G2">
-        <v>0.7799113122193594</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.9871331309310909</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9671618641698401</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K2">
-        <v>0.9224481468728767</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.8410455966825046</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0.8387096774193549</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0.8409090909090909</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.9629629629629629</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0.9122807017543859</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.9135802469135802</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.8235294117647058</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.6949152542372881</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.6779661016949152</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.6470588235294117</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.564516129032258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -638,70 +659,70 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>173</v>
+        <v>454</v>
       </c>
       <c r="C3">
-        <v>0.7633378932968536</v>
+        <v>0.6673992673992675</v>
       </c>
       <c r="D3">
-        <v>214</v>
+        <v>547</v>
       </c>
       <c r="E3">
-        <v>0.8453757225433526</v>
+        <v>0.7805856397914159</v>
       </c>
       <c r="F3">
-        <v>0.9654696132596685</v>
+        <v>0.9804075235109718</v>
       </c>
       <c r="G3">
-        <v>0.8479765923313409</v>
+        <v>0.8120001089998062</v>
       </c>
       <c r="I3">
-        <v>0.9236027236338721</v>
+        <v>0.9811940675042248</v>
       </c>
       <c r="J3">
-        <v>0.7998268153878347</v>
+        <v>0.9492125905838468</v>
       </c>
       <c r="K3">
-        <v>0.679563883051454</v>
+        <v>0.8924235874164476</v>
       </c>
       <c r="L3">
-        <v>0.622556016863841</v>
+        <v>0.8285660687282675</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="N3">
-        <v>0.88</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="O3">
-        <v>0.8285714285714286</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="P3">
-        <v>0.6956521739130435</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="R3">
-        <v>0.9361702127659575</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="S3">
-        <v>0.90625</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="T3">
-        <v>0.8205128205128205</v>
+        <v>0.768</v>
       </c>
       <c r="U3">
-        <v>0.6842105263157895</v>
+        <v>0.7754010695187166</v>
       </c>
       <c r="V3">
-        <v>0.5643564356435644</v>
+        <v>0.71875</v>
       </c>
       <c r="W3">
-        <v>0.5</v>
+        <v>0.6649746192893401</v>
       </c>
       <c r="X3">
-        <v>0.4392523364485982</v>
+        <v>0.5673076923076923</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -709,70 +730,70 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="C4">
-        <v>0.6905444126074498</v>
+        <v>0.6633221850613156</v>
       </c>
       <c r="D4">
-        <v>243</v>
+        <v>328</v>
       </c>
       <c r="E4">
-        <v>0.8013082583810303</v>
+        <v>0.7875647668393783</v>
       </c>
       <c r="F4">
-        <v>0.9914383561643836</v>
+        <v>0.9821917808219178</v>
       </c>
       <c r="G4">
-        <v>0.8005576022194933</v>
+        <v>0.7799113122193594</v>
       </c>
       <c r="I4">
-        <v>0.9639267344358847</v>
+        <v>0.9871331309310909</v>
       </c>
       <c r="J4">
-        <v>0.9197126696595417</v>
+        <v>0.9671618641698401</v>
       </c>
       <c r="K4">
-        <v>0.8391035857307528</v>
+        <v>0.9224481468728767</v>
       </c>
       <c r="L4">
-        <v>0.775803912006744</v>
+        <v>0.8410455966825046</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N4">
-        <v>0.9</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="O4">
-        <v>0.8888888888888888</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="P4">
-        <v>0.7297297297297297</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="R4">
-        <v>0.9473684210526315</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="S4">
-        <v>0.9411764705882353</v>
+        <v>0.9135802469135802</v>
       </c>
       <c r="T4">
-        <v>0.84375</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="U4">
-        <v>0.6941176470588235</v>
+        <v>0.6949152542372881</v>
       </c>
       <c r="V4">
-        <v>0.6705882352941177</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="W4">
-        <v>0.6091954022988506</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="X4">
-        <v>0.5164835164835164</v>
+        <v>0.564516129032258</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -780,70 +801,70 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>322</v>
+        <v>173</v>
       </c>
       <c r="C5">
-        <v>0.5292397660818713</v>
+        <v>0.7633378932968536</v>
       </c>
       <c r="D5">
-        <v>361</v>
+        <v>214</v>
       </c>
       <c r="E5">
-        <v>0.6943268416596104</v>
+        <v>0.8453757225433526</v>
       </c>
       <c r="F5">
-        <v>0.9963768115942029</v>
+        <v>0.9654696132596685</v>
       </c>
       <c r="G5">
-        <v>0.7794260690850757</v>
+        <v>0.8479765923313409</v>
       </c>
       <c r="I5">
-        <v>0.9520989949107307</v>
+        <v>0.9236027236338721</v>
       </c>
       <c r="J5">
-        <v>0.870076640822134</v>
+        <v>0.7998268153878347</v>
       </c>
       <c r="K5">
-        <v>0.7356308526857407</v>
+        <v>0.679563883051454</v>
       </c>
       <c r="L5">
-        <v>0.582809693067125</v>
+        <v>0.622556016863841</v>
       </c>
       <c r="M5">
-        <v>0.7857142857142857</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0.65625</v>
+        <v>0.88</v>
       </c>
       <c r="O5">
-        <v>0.6363636363636364</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="P5">
-        <v>0.5454545454545454</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="Q5">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0.7924528301886793</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="S5">
-        <v>0.7777777777777778</v>
+        <v>0.90625</v>
       </c>
       <c r="T5">
-        <v>0.7058823529411765</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="U5">
-        <v>0.6385542168674698</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="V5">
-        <v>0.5764705882352941</v>
+        <v>0.5643564356435644</v>
       </c>
       <c r="W5">
-        <v>0.5348837209302326</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
-        <v>0.4285714285714286</v>
+        <v>0.4392523364485982</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -851,70 +872,70 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="C6">
-        <v>0.6284403669724771</v>
+        <v>0.6905444126074498</v>
       </c>
       <c r="D6">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="E6">
-        <v>0.7649513212795549</v>
+        <v>0.8013082583810303</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.9914383561643836</v>
       </c>
       <c r="G6">
-        <v>0.7776093839487362</v>
+        <v>0.8005576022194933</v>
       </c>
       <c r="I6">
-        <v>0.9458333333333334</v>
+        <v>0.9639267344358847</v>
       </c>
       <c r="J6">
-        <v>0.835956655223083</v>
+        <v>0.9197126696595417</v>
       </c>
       <c r="K6">
-        <v>0.7539233048860803</v>
+        <v>0.8391035857307528</v>
       </c>
       <c r="L6">
-        <v>0.7026480525229438</v>
+        <v>0.775803912006744</v>
       </c>
       <c r="M6">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.8260869565217391</v>
+        <v>0.9</v>
       </c>
       <c r="O6">
-        <v>0.7741935483870968</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="P6">
-        <v>0.631578947368421</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="Q6">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.9047619047619048</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="S6">
-        <v>0.8727272727272727</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="T6">
-        <v>0.7741935483870968</v>
+        <v>0.84375</v>
       </c>
       <c r="U6">
-        <v>0.6153846153846154</v>
+        <v>0.6941176470588235</v>
       </c>
       <c r="V6">
-        <v>0.607843137254902</v>
+        <v>0.6705882352941177</v>
       </c>
       <c r="W6">
-        <v>0.6</v>
+        <v>0.6091954022988506</v>
       </c>
       <c r="X6">
-        <v>0.5294117647058824</v>
+        <v>0.5164835164835164</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -922,70 +943,70 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="C7">
-        <v>0.7163398692810458</v>
+        <v>0.5292397660818713</v>
       </c>
       <c r="D7">
-        <v>252</v>
+        <v>361</v>
       </c>
       <c r="E7">
-        <v>0.8259668508287292</v>
+        <v>0.6943268416596104</v>
       </c>
       <c r="F7">
-        <v>0.9538258575197889</v>
+        <v>0.9963768115942029</v>
       </c>
       <c r="G7">
-        <v>0.8405437706000608</v>
+        <v>0.7794260690850757</v>
       </c>
       <c r="I7">
-        <v>0.9480402208944156</v>
+        <v>0.9520989949107307</v>
       </c>
       <c r="J7">
-        <v>0.8666103322270011</v>
+        <v>0.870076640822134</v>
       </c>
       <c r="K7">
-        <v>0.6854535636375144</v>
+        <v>0.7356308526857407</v>
       </c>
       <c r="L7">
-        <v>0.5382056054789923</v>
+        <v>0.582809693067125</v>
       </c>
       <c r="M7">
-        <v>0.8823529411764706</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N7">
-        <v>0.7567567567567568</v>
+        <v>0.65625</v>
       </c>
       <c r="O7">
-        <v>0.7169811320754716</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="P7">
-        <v>0.5857142857142857</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="Q7">
-        <v>0.9375</v>
+        <v>0.88</v>
       </c>
       <c r="R7">
-        <v>0.8615384615384616</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="S7">
-        <v>0.8351648351648352</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="T7">
-        <v>0.7387387387387387</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="U7">
-        <v>0.6907216494845361</v>
+        <v>0.6385542168674698</v>
       </c>
       <c r="V7">
-        <v>0.5882352941176471</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="W7">
-        <v>0.4953271028037384</v>
+        <v>0.5348837209302326</v>
       </c>
       <c r="X7">
-        <v>0.4107142857142857</v>
+        <v>0.4285714285714286</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -993,70 +1014,70 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="C8">
-        <v>0.632887189292543</v>
+        <v>0.6284403669724771</v>
       </c>
       <c r="D8">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="E8">
-        <v>0.7505422993492408</v>
+        <v>0.7649513212795549</v>
       </c>
       <c r="F8">
-        <v>0.9395973154362416</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7759023148404083</v>
+        <v>0.7776093839487362</v>
       </c>
       <c r="I8">
-        <v>0.9438208024484173</v>
+        <v>0.9458333333333334</v>
       </c>
       <c r="J8">
-        <v>0.8184417637268504</v>
+        <v>0.835956655223083</v>
       </c>
       <c r="K8">
-        <v>0.6475148584780974</v>
+        <v>0.7539233048860803</v>
       </c>
       <c r="L8">
-        <v>0.5970154749403498</v>
+        <v>0.7026480525229438</v>
       </c>
       <c r="M8">
-        <v>0.6666666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="N8">
-        <v>0.5862068965517241</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="O8">
-        <v>0.55</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="P8">
-        <v>0.4038461538461539</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="Q8">
-        <v>0.8</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="R8">
-        <v>0.7391304347826086</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="S8">
-        <v>0.7096774193548387</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="T8">
-        <v>0.5753424657534246</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="U8">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="V8">
+        <v>0.607843137254902</v>
+      </c>
+      <c r="W8">
         <v>0.6</v>
       </c>
-      <c r="V8">
-        <v>0.4473684210526315</v>
-      </c>
-      <c r="W8">
-        <v>0.35</v>
-      </c>
       <c r="X8">
-        <v>0.2926829268292683</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1064,70 +1085,70 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C9">
-        <v>0.5945017182130584</v>
+        <v>0.7163398692810458</v>
       </c>
       <c r="D9">
-        <v>325</v>
+        <v>252</v>
       </c>
       <c r="E9">
-        <v>0.7111111111111111</v>
+        <v>0.8259668508287292</v>
       </c>
       <c r="F9">
-        <v>0.9191419141914191</v>
+        <v>0.9538258575197889</v>
       </c>
       <c r="G9">
-        <v>0.8255181159139061</v>
+        <v>0.8405437706000608</v>
       </c>
       <c r="I9">
-        <v>0.9464397000796645</v>
+        <v>0.9480402208944156</v>
       </c>
       <c r="J9">
-        <v>0.8766096067182609</v>
+        <v>0.8666103322270011</v>
       </c>
       <c r="K9">
-        <v>0.7242486824147757</v>
+        <v>0.6854535636375144</v>
       </c>
       <c r="L9">
-        <v>0.5283442940931433</v>
+        <v>0.5382056054789923</v>
       </c>
       <c r="M9">
-        <v>0.5555555555555556</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="N9">
-        <v>0.4615384615384616</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="O9">
-        <v>0.4285714285714285</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="P9">
-        <v>0.3098591549295774</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="Q9">
-        <v>0.7142857142857143</v>
+        <v>0.9375</v>
       </c>
       <c r="R9">
-        <v>0.631578947368421</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="S9">
-        <v>0.6</v>
+        <v>0.8351648351648352</v>
       </c>
       <c r="T9">
-        <v>0.4731182795698925</v>
+        <v>0.7387387387387387</v>
       </c>
       <c r="U9">
-        <v>0.6790123456790124</v>
+        <v>0.6907216494845361</v>
       </c>
       <c r="V9">
-        <v>0.5764705882352941</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="W9">
-        <v>0.4666666666666667</v>
+        <v>0.4953271028037384</v>
       </c>
       <c r="X9">
-        <v>0.326530612244898</v>
+        <v>0.4107142857142857</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1135,70 +1156,70 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C10">
-        <v>0.7273853779429987</v>
+        <v>0.632887189292543</v>
       </c>
       <c r="D10">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="E10">
-        <v>0.8200668896321071</v>
+        <v>0.7505422993492408</v>
       </c>
       <c r="F10">
-        <v>0.96875</v>
+        <v>0.9395973154362416</v>
       </c>
       <c r="G10">
-        <v>0.8200429140191359</v>
+        <v>0.7759023148404083</v>
       </c>
       <c r="I10">
-        <v>0.9674852424512881</v>
+        <v>0.9438208024484173</v>
       </c>
       <c r="J10">
-        <v>0.9203596689988044</v>
+        <v>0.8184417637268504</v>
       </c>
       <c r="K10">
-        <v>0.8271100270923769</v>
+        <v>0.6475148584780974</v>
       </c>
       <c r="L10">
-        <v>0.6560317606652077</v>
+        <v>0.5970154749403498</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N10">
-        <v>0.9545454545454546</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="O10">
-        <v>0.9032258064516129</v>
+        <v>0.55</v>
       </c>
       <c r="P10">
-        <v>0.6585365853658537</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R10">
-        <v>0.9767441860465116</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="S10">
-        <v>0.9491525423728814</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="T10">
-        <v>0.7941176470588235</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="U10">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="V10">
-        <v>0.7227722772277227</v>
+        <v>0.4473684210526315</v>
       </c>
       <c r="W10">
-        <v>0.6538461538461539</v>
+        <v>0.35</v>
       </c>
       <c r="X10">
-        <v>0.4782608695652174</v>
+        <v>0.2926829268292683</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1206,70 +1227,70 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="C11">
-        <v>0.6588594704684319</v>
+        <v>0.5945017182130584</v>
       </c>
       <c r="D11">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="E11">
-        <v>0.7940876656472987</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="F11">
-        <v>0.9616438356164384</v>
+        <v>0.9191419141914191</v>
       </c>
       <c r="G11">
-        <v>0.8572129929213274</v>
+        <v>0.8255181159139061</v>
       </c>
       <c r="I11">
-        <v>0.9974253771482549</v>
+        <v>0.9464397000796645</v>
       </c>
       <c r="J11">
-        <v>0.9890644087376846</v>
+        <v>0.8766096067182609</v>
       </c>
       <c r="K11">
-        <v>0.9230969881975312</v>
+        <v>0.7242486824147757</v>
       </c>
       <c r="L11">
-        <v>0.7486251134176306</v>
+        <v>0.5283442940931433</v>
       </c>
       <c r="M11">
-        <v>0.9230769230769231</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="N11">
-        <v>0.8518518518518519</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O11">
-        <v>0.7948717948717948</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="P11">
-        <v>0.5740740740740741</v>
+        <v>0.3098591549295774</v>
       </c>
       <c r="Q11">
-        <v>0.96</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R11">
-        <v>0.92</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="S11">
-        <v>0.8857142857142857</v>
+        <v>0.6</v>
       </c>
       <c r="T11">
-        <v>0.7294117647058823</v>
+        <v>0.4731182795698925</v>
       </c>
       <c r="U11">
-        <v>0.9333333333333333</v>
+        <v>0.6790123456790124</v>
       </c>
       <c r="V11">
-        <v>0.8699186991869918</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="W11">
-        <v>0.7404580152671756</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="X11">
-        <v>0.527027027027027</v>
+        <v>0.326530612244898</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1277,70 +1298,70 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="C12">
-        <v>0.6347826086956522</v>
+        <v>0.7273853779429987</v>
       </c>
       <c r="D12">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="E12">
-        <v>0.7384196185286104</v>
+        <v>0.8200668896321071</v>
       </c>
       <c r="F12">
-        <v>0.9702300405953992</v>
+        <v>0.96875</v>
       </c>
       <c r="G12">
-        <v>0.8112783859776519</v>
+        <v>0.8200429140191359</v>
       </c>
       <c r="I12">
-        <v>0.9772463592741221</v>
+        <v>0.9674852424512881</v>
       </c>
       <c r="J12">
-        <v>0.9265319953792952</v>
+        <v>0.9203596689988044</v>
       </c>
       <c r="K12">
-        <v>0.8602264019385841</v>
+        <v>0.8271100270923769</v>
       </c>
       <c r="L12">
-        <v>0.7157990393191697</v>
+        <v>0.6560317606652077</v>
       </c>
       <c r="M12">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0.8888888888888888</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="O12">
-        <v>0.8717948717948718</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="P12">
-        <v>0.660377358490566</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="Q12">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0.9411764705882353</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="S12">
-        <v>0.9315068493150684</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="T12">
-        <v>0.7954545454545454</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="U12">
-        <v>0.7731958762886598</v>
+        <v>0.76</v>
       </c>
       <c r="V12">
-        <v>0.7346938775510203</v>
+        <v>0.7227722772277227</v>
       </c>
       <c r="W12">
-        <v>0.6799999999999999</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="X12">
-        <v>0.5514018691588785</v>
+        <v>0.4782608695652174</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1348,70 +1369,70 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="C13">
-        <v>0.6166419019316494</v>
+        <v>0.6588594704684319</v>
       </c>
       <c r="D13">
-        <v>327</v>
+        <v>404</v>
       </c>
       <c r="E13">
-        <v>0.7365028203062047</v>
+        <v>0.7940876656472987</v>
       </c>
       <c r="F13">
-        <v>0.9622641509433962</v>
+        <v>0.9616438356164384</v>
       </c>
       <c r="G13">
-        <v>0.8206176505074557</v>
+        <v>0.8572129929213274</v>
       </c>
       <c r="I13">
-        <v>0.9788879932318038</v>
+        <v>0.9974253771482549</v>
       </c>
       <c r="J13">
-        <v>0.9527519456591726</v>
+        <v>0.9890644087376846</v>
       </c>
       <c r="K13">
-        <v>0.8310154974445465</v>
+        <v>0.9230969881975312</v>
       </c>
       <c r="L13">
-        <v>0.7617513941934458</v>
+        <v>0.7486251134176306</v>
       </c>
       <c r="M13">
-        <v>0.6111111111111112</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="N13">
-        <v>0.5789473684210527</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="O13">
-        <v>0.5454545454545454</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="P13">
-        <v>0.4166666666666667</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="Q13">
-        <v>0.7586206896551724</v>
+        <v>0.96</v>
       </c>
       <c r="R13">
-        <v>0.7333333333333333</v>
+        <v>0.92</v>
       </c>
       <c r="S13">
-        <v>0.7058823529411765</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="T13">
-        <v>0.5882352941176471</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="U13">
-        <v>0.7471264367816092</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="V13">
-        <v>0.6853932584269663</v>
+        <v>0.8699186991869918</v>
       </c>
       <c r="W13">
-        <v>0.5578947368421052</v>
+        <v>0.7404580152671756</v>
       </c>
       <c r="X13">
-        <v>0.46</v>
+        <v>0.527027027027027</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1419,70 +1440,567 @@
         <v>36</v>
       </c>
       <c r="B14">
+        <v>294</v>
+      </c>
+      <c r="C14">
+        <v>0.6347826086956522</v>
+      </c>
+      <c r="D14">
+        <v>384</v>
+      </c>
+      <c r="E14">
+        <v>0.7384196185286104</v>
+      </c>
+      <c r="F14">
+        <v>0.9702300405953992</v>
+      </c>
+      <c r="G14">
+        <v>0.8112783859776519</v>
+      </c>
+      <c r="I14">
+        <v>0.9772463592741221</v>
+      </c>
+      <c r="J14">
+        <v>0.9265319953792952</v>
+      </c>
+      <c r="K14">
+        <v>0.8602264019385841</v>
+      </c>
+      <c r="L14">
+        <v>0.7157990393191697</v>
+      </c>
+      <c r="M14">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="N14">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O14">
+        <v>0.8717948717948718</v>
+      </c>
+      <c r="P14">
+        <v>0.660377358490566</v>
+      </c>
+      <c r="Q14">
+        <v>0.96</v>
+      </c>
+      <c r="R14">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="S14">
+        <v>0.9315068493150684</v>
+      </c>
+      <c r="T14">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="U14">
+        <v>0.7731958762886598</v>
+      </c>
+      <c r="V14">
+        <v>0.7346938775510203</v>
+      </c>
+      <c r="W14">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="X14">
+        <v>0.5514018691588785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>258</v>
+      </c>
+      <c r="C15">
+        <v>0.6166419019316494</v>
+      </c>
+      <c r="D15">
+        <v>327</v>
+      </c>
+      <c r="E15">
+        <v>0.7365028203062047</v>
+      </c>
+      <c r="F15">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="G15">
+        <v>0.8206176505074557</v>
+      </c>
+      <c r="I15">
+        <v>0.9788879932318038</v>
+      </c>
+      <c r="J15">
+        <v>0.9527519456591726</v>
+      </c>
+      <c r="K15">
+        <v>0.8310154974445465</v>
+      </c>
+      <c r="L15">
+        <v>0.7617513941934458</v>
+      </c>
+      <c r="M15">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="N15">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="O15">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="P15">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Q15">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="R15">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="S15">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="T15">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="U15">
+        <v>0.7471264367816092</v>
+      </c>
+      <c r="V15">
+        <v>0.6853932584269663</v>
+      </c>
+      <c r="W15">
+        <v>0.5578947368421052</v>
+      </c>
+      <c r="X15">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
         <v>1040</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>0.5462478184991274</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>1283</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>0.7018359284220311</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>0.9492430988423864</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>0.7981418078099008</v>
       </c>
-      <c r="I14">
+      <c r="I16">
         <v>0.9640154668625864</v>
       </c>
-      <c r="J14">
+      <c r="J16">
         <v>0.8926567282929285</v>
       </c>
-      <c r="K14">
+      <c r="K16">
         <v>0.7620673254108867</v>
       </c>
-      <c r="L14">
+      <c r="L16">
         <v>0.6009479564182667</v>
       </c>
-      <c r="M14">
+      <c r="M16">
         <v>0.8</v>
       </c>
-      <c r="N14">
+      <c r="N16">
         <v>0.7096774193548387</v>
       </c>
-      <c r="O14">
+      <c r="O16">
         <v>0.6521739130434783</v>
       </c>
-      <c r="P14">
+      <c r="P16">
         <v>0.4838709677419355</v>
       </c>
-      <c r="Q14">
+      <c r="Q16">
         <v>0.8888888888888888</v>
       </c>
-      <c r="R14">
+      <c r="R16">
         <v>0.8301886792452831</v>
       </c>
-      <c r="S14">
+      <c r="S16">
         <v>0.7894736842105263</v>
       </c>
-      <c r="T14">
+      <c r="T16">
         <v>0.6521739130434783</v>
       </c>
-      <c r="U14">
+      <c r="U16">
         <v>0.6891891891891893</v>
       </c>
-      <c r="V14">
+      <c r="V16">
         <v>0.541795665634675</v>
       </c>
-      <c r="W14">
+      <c r="W16">
         <v>0.4335260115606936</v>
       </c>
-      <c r="X14">
+      <c r="X16">
         <v>0.320855614973262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>364</v>
+      </c>
+      <c r="C17">
+        <v>0.556638246041413</v>
+      </c>
+      <c r="D17">
+        <v>434</v>
+      </c>
+      <c r="E17">
+        <v>0.6864161849710982</v>
+      </c>
+      <c r="F17">
+        <v>0.9824281150159745</v>
+      </c>
+      <c r="G17">
+        <v>0.7514206262675498</v>
+      </c>
+      <c r="I17">
+        <v>0.9584982725338342</v>
+      </c>
+      <c r="J17">
+        <v>0.885578212432632</v>
+      </c>
+      <c r="K17">
+        <v>0.7098607037878979</v>
+      </c>
+      <c r="L17">
+        <v>0.6336240005799599</v>
+      </c>
+      <c r="M17">
+        <v>0.8125</v>
+      </c>
+      <c r="N17">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="O17">
+        <v>0.6875</v>
+      </c>
+      <c r="P17">
+        <v>0.4696969696969697</v>
+      </c>
+      <c r="Q17">
+        <v>0.896551724137931</v>
+      </c>
+      <c r="R17">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="S17">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="T17">
+        <v>0.6391752577319587</v>
+      </c>
+      <c r="U17">
+        <v>0.6161616161616161</v>
+      </c>
+      <c r="V17">
+        <v>0.5643564356435644</v>
+      </c>
+      <c r="W17">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="X17">
+        <v>0.3873873873873874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>458</v>
+      </c>
+      <c r="C18">
+        <v>0.7006535947712418</v>
+      </c>
+      <c r="D18">
+        <v>521</v>
+      </c>
+      <c r="E18">
+        <v>0.8125224901043541</v>
+      </c>
+      <c r="F18">
+        <v>0.9848703170028819</v>
+      </c>
+      <c r="G18">
+        <v>0.7843027141877723</v>
+      </c>
+      <c r="I18">
+        <v>0.9860018710568191</v>
+      </c>
+      <c r="J18">
+        <v>0.9528432324907892</v>
+      </c>
+      <c r="K18">
+        <v>0.8566563266474262</v>
+      </c>
+      <c r="L18">
+        <v>0.7875660813181229</v>
+      </c>
+      <c r="M18">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="N18">
+        <v>0.76</v>
+      </c>
+      <c r="O18">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="P18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q18">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="R18">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="S18">
+        <v>0.8709677419354839</v>
+      </c>
+      <c r="T18">
+        <v>0.8</v>
+      </c>
+      <c r="U18">
+        <v>0.7458563535911602</v>
+      </c>
+      <c r="V18">
+        <v>0.6439790575916231</v>
+      </c>
+      <c r="W18">
+        <v>0.5522388059701493</v>
+      </c>
+      <c r="X18">
+        <v>0.4903846153846154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>979</v>
+      </c>
+      <c r="C19">
+        <v>0.5562103354487761</v>
+      </c>
+      <c r="D19">
+        <v>1218</v>
+      </c>
+      <c r="E19">
+        <v>0.6955</v>
+      </c>
+      <c r="F19">
+        <v>0.8843264897346019</v>
+      </c>
+      <c r="G19">
+        <v>0.7360893647954145</v>
+      </c>
+      <c r="I19">
+        <v>0.9383395299683424</v>
+      </c>
+      <c r="J19">
+        <v>0.8808898991631832</v>
+      </c>
+      <c r="K19">
+        <v>0.7608757394278101</v>
+      </c>
+      <c r="L19">
+        <v>0.7155115866112022</v>
+      </c>
+      <c r="M19">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="N19">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="O19">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="P19">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="Q19">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="R19">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="S19">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="T19">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="U19">
+        <v>0.5704697986577181</v>
+      </c>
+      <c r="V19">
+        <v>0.4700315457413249</v>
+      </c>
+      <c r="W19">
+        <v>0.3850746268656716</v>
+      </c>
+      <c r="X19">
+        <v>0.3548387096774194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>1802</v>
+      </c>
+      <c r="C20">
+        <v>0.3111620795107034</v>
+      </c>
+      <c r="D20">
+        <v>1871</v>
+      </c>
+      <c r="E20">
+        <v>0.4652757930837382</v>
+      </c>
+      <c r="F20">
+        <v>0.9928716904276986</v>
+      </c>
+      <c r="G20">
+        <v>0.6184670552222449</v>
+      </c>
+      <c r="I20">
+        <v>0.9680743584439141</v>
+      </c>
+      <c r="J20">
+        <v>0.9071736385193052</v>
+      </c>
+      <c r="K20">
+        <v>0.7742420523527458</v>
+      </c>
+      <c r="L20">
+        <v>0.6063306690737087</v>
+      </c>
+      <c r="M20">
+        <v>0.625</v>
+      </c>
+      <c r="N20">
+        <v>0.59375</v>
+      </c>
+      <c r="O20">
+        <v>0.6</v>
+      </c>
+      <c r="P20">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="Q20">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="R20">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="S20">
+        <v>0.75</v>
+      </c>
+      <c r="T20">
+        <v>0.6046511627906976</v>
+      </c>
+      <c r="U20">
+        <v>0.3029315960912052</v>
+      </c>
+      <c r="V20">
+        <v>0.2555205047318612</v>
+      </c>
+      <c r="W20">
+        <v>0.2298136645962733</v>
+      </c>
+      <c r="X20">
+        <v>0.1903323262839879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>5421</v>
+      </c>
+      <c r="C21">
+        <v>0.2929437850528238</v>
+      </c>
+      <c r="D21">
+        <v>5501</v>
+      </c>
+      <c r="E21">
+        <v>0.4498449844984499</v>
+      </c>
+      <c r="F21">
+        <v>0.9961464354527938</v>
+      </c>
+      <c r="G21">
+        <v>0.6220415560275067</v>
+      </c>
+      <c r="I21">
+        <v>0.9705919235611249</v>
+      </c>
+      <c r="J21">
+        <v>0.9091579489175337</v>
+      </c>
+      <c r="K21">
+        <v>0.790349713091701</v>
+      </c>
+      <c r="L21">
+        <v>0.6346108903155061</v>
+      </c>
+      <c r="M21">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="O21">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="P21">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="Q21">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="R21">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="S21">
+        <v>0.7837837837837838</v>
+      </c>
+      <c r="T21">
+        <v>0.651685393258427</v>
+      </c>
+      <c r="U21">
+        <v>0.2693565976008724</v>
+      </c>
+      <c r="V21">
+        <v>0.232237539766702</v>
+      </c>
+      <c r="W21">
+        <v>0.2058212058212058</v>
+      </c>
+      <c r="X21">
+        <v>0.1732522796352584</v>
       </c>
     </row>
   </sheetData>
